--- a/ExcelToXML/RI/RI_test.xlsx
+++ b/ExcelToXML/RI/RI_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t xml:space="preserve">Zählen</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">Zum ursprünglichen Termin der Kirchenversammlung und zur Wahl des Ortes vgl. Reg. &lt;link riregesten:ri_1161-05-21_000001_000001_004_002_002_000381_0000000939&gt;939&lt;/link&gt;. Zur Interpretation der bei Acerbus Morena genannten &lt;em&gt;abbates Claravallenses&lt;/em&gt;  vgl. Güterbock in der Morena-Edition, 139 Anm. 5. - Die hier überlieferten, angeblichen Zustimmungen zu Viktor IV. aus anderen Königreichen wurden nur teilweise gegeben, vgl. etwa - zu Ungarn - Holtzmann, Alexander III. und Ungarn, Ungar. Jahrbücher 6 (1927) 408. Die Vorgänge der Mainzer Wahl von 1160/61 sind quellenmäßig erfaßt bei &lt;link http://opac.regesta-imperii.de/lang_de/kurztitelsuche_r.php?kurztitel=Böhmer,_Regesta_archiepiscoporum_Maguntinensium&gt;&lt;span class='smallcaps'&gt;Böhmer-Will&lt;/span&gt;&lt;/link&gt;, Reg. Geschichte Mainzer Erzbischöfe 1, S. 378 ff., vgl. aber auch Cron. Reinhardsbrunn., MG. SS XXX/1, 537 (Wahl Christians von Mainz zu 1161 April 2; dagegen in Cron. s. Petri Erf. mod., 180: zu 1160 Oktober 29) sowie Eberbacher Chronik, ed. Widmann, NA 13 (1888) 134 (Absetzung irrig nach Mainz verlegt). - Zur Reaktion der Zähringer vgl. das Schreiben Herzog Bertholds IV. von Burgund an König Ludwig VII. von Frankreich (Reg. &lt;link riregesten:ri_1161-06-20_000001_000001_004_002_002_000595_0000001153&gt;1153&lt;/link&gt;).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja das war</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;span class='spaced'&gt;Synode von Lodi&lt;/span&gt;</t>
@@ -181,6 +184,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -275,10 +279,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
+      <selection pane="bottomLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -415,17 +419,20 @@
       <c r="J2" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="R2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>117</v>
@@ -434,7 +441,7 @@
         <v>23591</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD2" s="1" t="n">
         <v>4002002</v>
@@ -446,10 +453,10 @@
         <v>962</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
